--- a/70003.xlsx
+++ b/70003.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickbarry/work/JAM/fitpack/database/ln/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F94B12F-73CE-BC4B-AAE8-E00551B31904}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1555EA-B317-7343-ADE0-4AD6A3FC6CFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2960" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11100" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="theory_table_evts_0" sheetId="1" r:id="rId1"/>
@@ -494,9 +494,9 @@
   </sheetPr>
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M29" sqref="M29"/>
+      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -594,7 +594,7 @@
         <v>856973923.70588708</v>
       </c>
       <c r="N2" s="13">
-        <v>34989.262101921813</v>
+        <v>146370.58479300811</v>
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O29" si="2">0.012*M2</f>
@@ -648,7 +648,7 @@
         <v>2305335876.9094772</v>
       </c>
       <c r="N3" s="13">
-        <v>57387.602903532563</v>
+        <v>240069.5668399827</v>
       </c>
       <c r="O3">
         <f t="shared" si="2"/>
@@ -702,7 +702,7 @@
         <v>756181677.53020215</v>
       </c>
       <c r="N4" s="13">
-        <v>27498.757745218281</v>
+        <v>137493.78872609141</v>
       </c>
       <c r="O4">
         <f t="shared" si="2"/>
@@ -756,7 +756,7 @@
         <v>26751868.27653449</v>
       </c>
       <c r="N5" s="13">
-        <v>4536.3377533775902</v>
+        <v>25861.104131752811</v>
       </c>
       <c r="O5">
         <f t="shared" si="2"/>
@@ -810,7 +810,7 @@
         <v>7760510.8913715193</v>
       </c>
       <c r="N6" s="13">
-        <v>2656.1268609098538</v>
+        <v>13928.84676792332</v>
       </c>
       <c r="O6">
         <f t="shared" si="2"/>
@@ -864,7 +864,7 @@
         <v>10997767.07091636</v>
       </c>
       <c r="N7" s="13">
-        <v>2543.476901329725</v>
+        <v>16581.440732726121</v>
       </c>
       <c r="O7">
         <f t="shared" si="2"/>
@@ -918,7 +918,7 @@
         <v>27160747.205663089</v>
       </c>
       <c r="N8" s="13">
-        <v>3114.525141841913</v>
+        <v>26057.98687814501</v>
       </c>
       <c r="O8">
         <f t="shared" si="2"/>
@@ -972,7 +972,7 @@
         <v>14408765.61448141</v>
       </c>
       <c r="N9" s="13">
-        <v>2684.0981366635428</v>
+        <v>18979.43993804968</v>
       </c>
       <c r="O9">
         <f t="shared" si="2"/>
@@ -1026,7 +1026,7 @@
         <v>2472948.151952276</v>
       </c>
       <c r="N10" s="13">
-        <v>1172.1177775368531</v>
+        <v>7862.8050846251363</v>
       </c>
       <c r="O10">
         <f t="shared" si="2"/>
@@ -1080,7 +1080,7 @@
         <v>40823174.959138848</v>
       </c>
       <c r="N11" s="13">
-        <v>3194.6508009146651</v>
+        <v>31946.508009146652</v>
       </c>
       <c r="O11">
         <f t="shared" si="2"/>
@@ -1134,7 +1134,7 @@
         <v>3643294.8388201841</v>
       </c>
       <c r="N12" s="13">
-        <v>327.34649922297137</v>
+        <v>3017.9856025253762</v>
       </c>
       <c r="O12">
         <f t="shared" si="2"/>
@@ -1188,7 +1188,7 @@
         <v>6440.3233997209718</v>
       </c>
       <c r="N13" s="13">
-        <v>22.25779621360185</v>
+        <v>126.8889612980673</v>
       </c>
       <c r="O13">
         <f t="shared" si="2"/>
@@ -1242,7 +1242,7 @@
         <v>28749.257433369909</v>
       </c>
       <c r="N14" s="13">
-        <v>41.12338495549983</v>
+        <v>268.09167011196888</v>
       </c>
       <c r="O14">
         <f t="shared" si="2"/>
@@ -1296,7 +1296,7 @@
         <v>139825.29793998221</v>
       </c>
       <c r="N15" s="13">
-        <v>118.2477475218798</v>
+        <v>591.23873760939887</v>
       </c>
       <c r="O15">
         <f t="shared" si="2"/>
@@ -1350,7 +1350,7 @@
         <v>856592.54782052233</v>
       </c>
       <c r="N16" s="13">
-        <v>166.22881119598301</v>
+        <v>1463.3801179294819</v>
       </c>
       <c r="O16">
         <f t="shared" si="2"/>
@@ -1404,7 +1404,7 @@
         <v>1945.422213724745</v>
       </c>
       <c r="N17" s="13">
-        <v>18.006583118981531</v>
+        <v>69.739196541915092</v>
       </c>
       <c r="O17">
         <f t="shared" si="2"/>
@@ -1458,7 +1458,7 @@
         <v>93615.702931767752</v>
       </c>
       <c r="N18" s="13">
-        <v>76.491708264592205</v>
+        <v>483.77604046647389</v>
       </c>
       <c r="O18">
         <f t="shared" si="2"/>
@@ -1512,7 +1512,7 @@
         <v>79618.808095240471</v>
       </c>
       <c r="N19" s="13">
-        <v>64.733790125096363</v>
+        <v>446.14685949595253</v>
       </c>
       <c r="O19">
         <f t="shared" si="2"/>
@@ -1566,7 +1566,7 @@
         <v>132930.98872504011</v>
       </c>
       <c r="N20" s="13">
-        <v>76.023734487569897</v>
+        <v>576.47850941088882</v>
       </c>
       <c r="O20">
         <f t="shared" si="2"/>
@@ -1620,7 +1620,7 @@
         <v>20102.681227039171</v>
       </c>
       <c r="N21" s="13">
-        <v>50.128187214180173</v>
+        <v>224.18006839948529</v>
       </c>
       <c r="O21">
         <f t="shared" si="2"/>
@@ -1674,7 +1674,7 @@
         <v>245274.78051116789</v>
       </c>
       <c r="N22" s="13">
-        <v>95.311337888224244</v>
+        <v>783.06254621065852</v>
       </c>
       <c r="O22">
         <f t="shared" si="2"/>
@@ -1728,7 +1728,7 @@
         <v>56981.188367133669</v>
       </c>
       <c r="N23" s="13">
-        <v>63.797216893581577</v>
+        <v>377.42942508213918</v>
       </c>
       <c r="O23">
         <f t="shared" si="2"/>
@@ -1782,7 +1782,7 @@
         <v>8667.9944655773797</v>
       </c>
       <c r="N24" s="13">
-        <v>38.008758783508</v>
+        <v>147.20728977854139</v>
       </c>
       <c r="O24">
         <f t="shared" si="2"/>
@@ -1836,7 +1836,7 @@
         <v>26426.467849309502</v>
       </c>
       <c r="N25" s="13">
-        <v>15.499697313557601</v>
+        <v>81.281098432091667</v>
       </c>
       <c r="O25">
         <f t="shared" si="2"/>
@@ -1890,7 +1890,7 @@
         <v>25807.647945693061</v>
       </c>
       <c r="N26" s="13">
-        <v>10.83085826064773</v>
+        <v>80.323794646563258</v>
       </c>
       <c r="O26">
         <f t="shared" si="2"/>
@@ -1944,7 +1944,7 @@
         <v>239.0630506138709</v>
       </c>
       <c r="N27" s="13">
-        <v>1.9960922265511301</v>
+        <v>7.7308319509266088</v>
       </c>
       <c r="O27">
         <f t="shared" si="2"/>
@@ -1998,7 +1998,7 @@
         <v>65.413006430178697</v>
       </c>
       <c r="N28" s="13">
-        <v>1.143791995339875</v>
+        <v>4.0439153808585901</v>
       </c>
       <c r="O28">
         <f t="shared" si="2"/>
@@ -2052,7 +2052,7 @@
         <v>1812.6916169495139</v>
       </c>
       <c r="N29" s="13">
-        <v>3.3659059116283192</v>
+        <v>21.287858141141829</v>
       </c>
       <c r="O29">
         <f t="shared" si="2"/>
